--- a/biology/Zoologie/Cassagnaua_hongkongensis/Cassagnaua_hongkongensis.xlsx
+++ b/biology/Zoologie/Cassagnaua_hongkongensis/Cassagnaua_hongkongensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cassagnaua hongkongensis, unique représentant du genre Cassagnaua, est une espèce de collemboles de la famille des Neanuridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cassagnaua hongkongensis, unique représentant du genre Cassagnaua, est une espèce de collemboles de la famille des Neanuridae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique de Chine. Elle se rencontre vers Hong Kong.
 </t>
@@ -542,10 +556,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de hongkong et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, Hong Kong.
-Ce genre est nommé en l'honneur de Paul Cassagnau[2].
+Ce genre est nommé en l'honneur de Paul Cassagnau.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Yosii, 1976 : On some Neanurid Collembola of South-East Asia. Nature and Life in Southeast Asia, vol. 7, p. 257-299
 Özdikmen, 2009 : A substitute name for a preoccupied genus of springtails (Collembola). Munis Entomology &amp; Zoology, vol. 4, no 1, p. 293-294 (texte intégral).
